--- a/Practical/LSTM/correlation coefficient.xlsx
+++ b/Practical/LSTM/correlation coefficient.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM_BTC_Case1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16432174103237096"/>
+          <c:x val="0.1587661854768154"/>
           <c:y val="5.0925925925925923E-2"/>
           <c:w val="0.77942825896762902"/>
           <c:h val="0.75318678915135606"/>
@@ -3688,6 +3688,7 @@
         <c:axId val="2102754799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70000"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3801,6 +3802,7 @@
         <c:axId val="2102758127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70000"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4093,34 +4095,6 @@
                   <c:y val="7.5293411201828531E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1">
-                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>R² = 0.9958</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6327,7 +6301,7 @@
         <c:axId val="1145569823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500"/>
+          <c:min val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6412,10 +6386,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6449,7 +6420,7 @@
         <c:axId val="1145562335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500"/>
+          <c:min val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6534,10 +6505,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -6570,7 +6538,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6584,12 +6554,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -6753,34 +6718,6 @@
                   <c:y val="0.1173840769903762"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1">
-                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>R² = 0.996</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -9107,7 +9044,7 @@
         <c:axId val="1145567327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500"/>
+          <c:min val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9192,10 +9129,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9229,7 +9163,8 @@
         <c:axId val="1145569407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="500"/>
+          <c:max val="4400"/>
+          <c:min val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9327,10 +9262,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -9363,7 +9295,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -9377,12 +9311,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -9494,9 +9423,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15614718148461521"/>
-          <c:y val="7.3853018372703402E-2"/>
-          <c:w val="0.71829474408060501"/>
+          <c:x val="0.14185430768522356"/>
+          <c:y val="5.1630796150481183E-2"/>
+          <c:w val="0.78847009255422018"/>
           <c:h val="0.74030271216097998"/>
         </c:manualLayout>
       </c:layout>
@@ -9548,31 +9477,6 @@
                   <c:y val="0.15685582991446456"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="1"/>
-                      <a:t>R² = 0.997</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -13167,7 +13071,7 @@
         <c:axId val="1080299743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80000"/>
+          <c:max val="70000"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -13206,14 +13110,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
                     <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Actual (USD)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="600" b="1">
+                <a:endParaRPr lang="en-US" sz="400" b="1">
                   <a:effectLst/>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -13221,7 +13125,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.347119998158125"/>
+              <c:y val="0.90970166229221339"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13259,10 +13170,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13296,6 +13204,7 @@
         <c:axId val="1080293919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13333,14 +13242,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" baseline="0">
                     <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Predicated (USDS)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="700">
+                <a:endParaRPr lang="en-US" sz="400" b="1">
                   <a:effectLst/>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -13348,7 +13257,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4580743196574116E-3"/>
+              <c:y val="0.15980971128608923"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13386,10 +13302,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -13422,7 +13335,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -13436,12 +13351,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -15797,16 +15707,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16094,7 +16004,7 @@
   <dimension ref="A2:C567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22902,7 +22812,7 @@
   <dimension ref="A2:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25777,8 +25687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B378"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="M17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28813,8 +28723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
